--- a/Excel_Study/20231208_엑셀단축키정리.xlsx
+++ b/Excel_Study/20231208_엑셀단축키정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moonjj\Desktop\기타\개인문서\LVUP준비파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fork\LVUP\Excel_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="엑셀 단축키 정리" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'엑셀 단축키 정리'!$B$2:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'엑셀 단축키 정리'!$B$2:$G$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,22 @@
   </si>
   <si>
     <t>함수 입력 중 자동완성 목록 노출 시 원하는 항목 선택 후 Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀 삽입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,9 +563,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +581,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -865,11 +893,11 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
@@ -896,7 +924,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -928,7 +956,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -941,10 +969,10 @@
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -973,7 +1001,7 @@
       <c r="F8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
@@ -992,7 +1020,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1008,7 +1036,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1032,7 +1060,7 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3"/>
@@ -1048,7 +1076,7 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3"/>
@@ -1137,7 +1165,7 @@
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1146,7 +1174,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+      <c r="B19" s="11">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1164,7 +1192,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+      <c r="B20" s="11">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1184,7 +1212,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+      <c r="B21" s="11">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1202,7 +1230,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+      <c r="B22" s="11">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1222,7 +1250,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+      <c r="B23" s="11">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1258,7 +1286,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+      <c r="B25" s="11">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1271,13 +1299,13 @@
       <c r="F25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+      <c r="B26" s="11">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1293,10 +1321,10 @@
       <c r="G26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+      <c r="B27" s="11">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1310,10 +1338,10 @@
         <v>51</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+      <c r="B28" s="11">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1327,10 +1355,10 @@
         <v>53</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+      <c r="B29" s="11">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1346,10 +1374,10 @@
         <v>54</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+      <c r="B30" s="11">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1365,10 +1393,10 @@
         <v>55</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="3">
+      <c r="B31" s="11">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1382,10 +1410,10 @@
         <v>58</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
+      <c r="B32" s="11">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1399,10 +1427,10 @@
         <v>57</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
+      <c r="B33" s="11">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1416,10 +1444,10 @@
         <v>60</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="3">
+      <c r="B34" s="11">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1435,7 +1463,7 @@
         <v>61</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
@@ -1444,7 +1472,7 @@
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E35" s="3"/>
@@ -1460,7 +1488,7 @@
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="3"/>
@@ -1504,7 +1532,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="3">
+      <c r="B39" s="11">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1518,7 +1546,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="3">
+      <c r="B40" s="11">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1662,7 +1690,7 @@
         <v>92</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G48" s="3"/>
@@ -1683,7 +1711,7 @@
       <c r="F49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="9"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
@@ -1742,7 +1770,7 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="3">
+      <c r="B53" s="11">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -1755,6 +1783,21 @@
       </c>
       <c r="G53" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
